--- a/docs/effects_workbook_.xlsx
+++ b/docs/effects_workbook_.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\ZocPy\plants-rework\repo\RandoPlant\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FB890B-7629-4949-893E-469B799351CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC858528-6289-4B25-B27B-CFA7C37F5041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{2A70C3A8-375B-48A3-90FF-8F7E34789A88}"/>
+    <workbookView xWindow="1420" yWindow="1400" windowWidth="28800" windowHeight="15460" xr2:uid="{2A70C3A8-375B-48A3-90FF-8F7E34789A88}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Overview" sheetId="1" r:id="rId1"/>
+    <sheet name="Necromantic" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -309,6 +310,7 @@
           </rPr>
           <t xml:space="preserve">
 Makes any Earthy material into Lava
+THESE ARE POTIONS NOT AFFINITIES
 </t>
         </r>
       </text>
@@ -491,7 +493,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="204">
   <si>
     <t>Fire</t>
   </si>
@@ -850,9 +852,6 @@
     <t>Set Dawn</t>
   </si>
   <si>
-    <t>Set Three Suns Dawn</t>
-  </si>
-  <si>
     <t>Necrotic Damage</t>
   </si>
   <si>
@@ -1004,13 +1003,115 @@
   </si>
   <si>
     <t>Dreamwalk</t>
+  </si>
+  <si>
+    <t>MATERIALS SHOULD BE COMPOUNDS NOT AFFINITIES - HIGH TIER AFFINITIES WHEN MIXED TOGETHER UNLOCK CERTAIN COMPOUNDS</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>Destroy</t>
+  </si>
+  <si>
+    <t>Effect</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Upper Bound</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lower Bound</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>1 - 2 Necrotic Damage</t>
+  </si>
+  <si>
+    <t>1 Tick</t>
+  </si>
+  <si>
+    <t>2 - 3 Necrotic Damage</t>
+  </si>
+  <si>
+    <t>3 - 4 Necrotic Damage</t>
+  </si>
+  <si>
+    <t>4-5 Necrotic Damage</t>
+  </si>
+  <si>
+    <t>1-2 Tick</t>
+  </si>
+  <si>
+    <t>2-4 Tick</t>
+  </si>
+  <si>
+    <t>5-7 Tick</t>
+  </si>
+  <si>
+    <t>Bottling</t>
+  </si>
+  <si>
+    <t>Self Target</t>
+  </si>
+  <si>
+    <t>Opponent Target</t>
+  </si>
+  <si>
+    <t>This is where you map out how the "Main" damage or effect mapping for overlapping single affinities breaks down, because you should be able to independantly scale all of the durations, damage, targets etc.</t>
+  </si>
+  <si>
+    <t>5-8 Necrotic Damage</t>
+  </si>
+  <si>
+    <t>7-10 Tick</t>
+  </si>
+  <si>
+    <t>Necromantic (and ..)</t>
+  </si>
+  <si>
+    <t>Create Hun</t>
+  </si>
+  <si>
+    <t>Create Khat</t>
+  </si>
+  <si>
+    <t>Set Three Moon Twilight</t>
+  </si>
+  <si>
+    <t>Potion of Khalkotauroi  Tier 3, Necro Tier 3, Metal Tier 3, Hun Essence, creates an Undead Metal Ox Golem</t>
+  </si>
+  <si>
+    <t>How do you mix these fields with &gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Control Undead - Body Control Tier 4 and Necro Tier 1-4</t>
+  </si>
+  <si>
+    <t>Invert Cardinal Affinity (Very hard)</t>
+  </si>
+  <si>
+    <t>Ignore Use of Ingredients (1 use)</t>
+  </si>
+  <si>
+    <t>Enchant Fire Affinity</t>
+  </si>
+  <si>
+    <t>Enchant Water Affinity</t>
+  </si>
+  <si>
+    <t>Enchant X Affinity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1073,8 +1174,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1159,8 +1280,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1192,16 +1325,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1257,6 +1428,54 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1576,7 +1795,7 @@
   <dimension ref="A1:AR38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1584,30 +1803,31 @@
     <col min="1" max="1" width="13.90625" customWidth="1"/>
     <col min="3" max="3" width="18.26953125" customWidth="1"/>
     <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
     <col min="9" max="9" width="16.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="19" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20" t="s">
+      <c r="H1" s="21"/>
+      <c r="I1" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="20"/>
+      <c r="J1" s="21"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1616,190 +1836,191 @@
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="Y9" s="50"/>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11" t="s">
+      <c r="H10" s="11"/>
+      <c r="I10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="9" t="s">
+      <c r="J10" s="12"/>
+      <c r="K10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="9"/>
-      <c r="M10" s="14" t="s">
+      <c r="L10" s="10"/>
+      <c r="M10" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="N10" s="14"/>
-      <c r="O10" s="15" t="s">
+      <c r="N10" s="15"/>
+      <c r="O10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="16" t="s">
+      <c r="P10" s="16"/>
+      <c r="Q10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="R10" s="16"/>
-      <c r="S10" s="17" t="s">
+      <c r="R10" s="17"/>
+      <c r="S10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="T10" s="17"/>
-      <c r="U10" s="18" t="s">
+      <c r="T10" s="18"/>
+      <c r="U10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="V10" s="18"/>
-      <c r="W10" s="21" t="s">
+      <c r="V10" s="19"/>
+      <c r="W10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="12" t="s">
+      <c r="X10" s="22"/>
+      <c r="Y10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12" t="s">
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12" t="s">
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12" t="s">
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="13" t="s">
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AH10" s="13"/>
-      <c r="AI10" s="22" t="s">
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="AJ10" s="22"/>
-      <c r="AK10" s="23" t="s">
+      <c r="AJ10" s="23"/>
+      <c r="AK10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="AL10" s="23"/>
-      <c r="AM10" s="12" t="s">
+      <c r="AL10" s="24"/>
+      <c r="AM10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AN10" s="12"/>
-      <c r="AO10" s="12" t="s">
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AP10" s="12"/>
-      <c r="AQ10" s="12" t="s">
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AR10" s="12"/>
+      <c r="AR10" s="13"/>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
@@ -1966,6 +2187,9 @@
       <c r="J12">
         <v>3</v>
       </c>
+      <c r="K12" t="s">
+        <v>201</v>
+      </c>
       <c r="M12" t="s">
         <v>110</v>
       </c>
@@ -1973,43 +2197,46 @@
         <v>3</v>
       </c>
       <c r="Q12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W12" t="s">
         <v>115</v>
       </c>
+      <c r="Y12" t="s">
+        <v>187</v>
+      </c>
       <c r="AA12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AC12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AE12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AG12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AI12" t="s">
         <v>41</v>
       </c>
       <c r="AK12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AM12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AO12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AQ12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.35">
@@ -2043,6 +2270,9 @@
       <c r="J13">
         <v>2</v>
       </c>
+      <c r="K13" t="s">
+        <v>202</v>
+      </c>
       <c r="M13" t="s">
         <v>111</v>
       </c>
@@ -2050,40 +2280,46 @@
         <v>4</v>
       </c>
       <c r="Q13" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+      <c r="S13" t="s">
+        <v>171</v>
       </c>
       <c r="U13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="W13" t="s">
         <v>116</v>
       </c>
+      <c r="Y13" t="s">
+        <v>188</v>
+      </c>
       <c r="AA13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AG13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AI13" t="s">
         <v>42</v>
       </c>
       <c r="AK13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AM13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AO13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AQ13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.35">
@@ -2117,6 +2353,9 @@
       <c r="J14">
         <v>3</v>
       </c>
+      <c r="K14" t="s">
+        <v>203</v>
+      </c>
       <c r="M14" t="s">
         <v>113</v>
       </c>
@@ -2124,31 +2363,37 @@
         <v>4</v>
       </c>
       <c r="Q14" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="S14" t="s">
+        <v>172</v>
       </c>
       <c r="U14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W14" t="s">
         <v>117</v>
       </c>
+      <c r="Y14" t="s">
+        <v>193</v>
+      </c>
       <c r="AA14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AC14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AK14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AO14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AQ14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.35">
@@ -2186,31 +2431,37 @@
         <v>114</v>
       </c>
       <c r="Q15" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="S15" t="s">
+        <v>186</v>
       </c>
       <c r="U15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="W15" t="s">
         <v>118</v>
       </c>
+      <c r="Y15" t="s">
+        <v>194</v>
+      </c>
       <c r="AA15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AG15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AK15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AQ15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.35">
@@ -2245,25 +2496,28 @@
         <v>1</v>
       </c>
       <c r="Q16" t="s">
+        <v>143</v>
+      </c>
+      <c r="U16" t="s">
+        <v>168</v>
+      </c>
+      <c r="W16" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG16" t="s">
         <v>144</v>
       </c>
-      <c r="U16" t="s">
-        <v>169</v>
-      </c>
-      <c r="W16" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>145</v>
-      </c>
       <c r="AK16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AQ16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.35">
@@ -2298,13 +2552,16 @@
         <v>3</v>
       </c>
       <c r="AA17" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>199</v>
       </c>
       <c r="AK17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AQ17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.35">
@@ -2333,13 +2590,13 @@
         <v>2</v>
       </c>
       <c r="AA18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AK18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AQ18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.35">
@@ -2367,11 +2624,14 @@
       <c r="J19">
         <v>5</v>
       </c>
+      <c r="AA19" t="s">
+        <v>200</v>
+      </c>
       <c r="AK19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AQ19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.35">
@@ -2400,7 +2660,7 @@
         <v>3</v>
       </c>
       <c r="AQ20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.35">
@@ -2423,7 +2683,7 @@
         <v>5</v>
       </c>
       <c r="AQ21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.35">
@@ -2633,16 +2893,22 @@
       <c r="F32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="I32" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E33" t="s">
         <v>59</v>
       </c>
       <c r="F33">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="I33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E34" t="s">
         <v>60</v>
       </c>
@@ -2650,7 +2916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E35" t="s">
         <v>61</v>
       </c>
@@ -2658,7 +2924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E36" t="s">
         <v>62</v>
       </c>
@@ -2666,7 +2932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E37" t="s">
         <v>63</v>
       </c>
@@ -2674,7 +2940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="5:9" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="27">
     <mergeCell ref="AK10:AL10"/>
@@ -2709,4 +2975,1001 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4B0B23-3967-459E-9865-E5CE05D975A8}">
+  <dimension ref="A1:AG106"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.08984375" customWidth="1"/>
+    <col min="3" max="3" width="27.7265625" customWidth="1"/>
+    <col min="4" max="4" width="20.90625" customWidth="1"/>
+    <col min="12" max="12" width="21.453125" customWidth="1"/>
+    <col min="13" max="13" width="18.7265625" customWidth="1"/>
+    <col min="14" max="14" width="18.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="74" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="H1" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A2" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="K2" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="V2" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z2" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB2" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC2" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD2" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE2" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF2" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG2" s="35"/>
+    </row>
+    <row r="3" spans="1:33" ht="87" x14ac:dyDescent="0.35">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26">
+        <v>1</v>
+      </c>
+      <c r="C3" s="26">
+        <v>25</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="M3" s="49" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26">
+        <v>25</v>
+      </c>
+      <c r="C4" s="26">
+        <v>70</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="J4" s="44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A5" s="25"/>
+      <c r="B5" s="26">
+        <v>70</v>
+      </c>
+      <c r="C5" s="26">
+        <v>100</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26">
+        <v>101</v>
+      </c>
+      <c r="C6" s="26">
+        <v>200</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A7" s="25"/>
+      <c r="B7" s="5">
+        <v>201</v>
+      </c>
+      <c r="C7" s="5">
+        <v>300</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="J7" s="46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A8" s="25"/>
+      <c r="B8" s="5">
+        <v>301</v>
+      </c>
+      <c r="C8" s="5">
+        <v>400</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="J8" s="37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A9" s="25"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="5"/>
+      <c r="J9" s="38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A10" s="25"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="J10" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A11" s="25"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="J11" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A12" s="25"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="J12" s="41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A13" s="25"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="J13" s="42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A14" s="25"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="J14" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A15" s="25"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="J15" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A16" s="25"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="J16" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="25"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="J17" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="25"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="J18" s="35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="25"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="J19" s="36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="25"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="J20" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="25"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="J21" s="34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="25"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="J22" s="35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="25"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="J23" s="35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="25"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="J24" s="35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="25"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="25"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="25"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="25"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="25"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="25"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="25"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="25"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="25"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="25"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="25"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="25"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="25"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="25"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="25"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="25"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="25"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="25"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="25"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="25"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="25"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="25"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="25"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="25"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="25"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="25"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="25"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="25"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="25"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="25"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="25"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="25"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="25"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="25"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="25"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="25"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="25"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="25"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="25"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="25"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="25"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="25"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="25"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="25"/>
+      <c r="B95" s="25"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="25"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="25"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="25"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="25"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="25"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="25"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="25"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="25"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="25"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="25"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="25"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="25"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="25"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="25"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="25"/>
+      <c r="D104" s="25"/>
+      <c r="E104" s="25"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="25"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="25"/>
+      <c r="E105" s="25"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="25"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="25"/>
+      <c r="D106" s="25"/>
+      <c r="E106" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="K1:AF1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/effects_workbook_.xlsx
+++ b/docs/effects_workbook_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\ZocPy\plants-rework\repo\RandoPlant\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC858528-6289-4B25-B27B-CFA7C37F5041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D63A5F-D108-4E07-87A2-ABE52DE8935A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="1400" windowWidth="28800" windowHeight="15460" xr2:uid="{2A70C3A8-375B-48A3-90FF-8F7E34789A88}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{2A70C3A8-375B-48A3-90FF-8F7E34789A88}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -493,7 +493,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="205">
   <si>
     <t>Fire</t>
   </si>
@@ -1105,6 +1105,9 @@
   </si>
   <si>
     <t>Enchant X Affinity</t>
+  </si>
+  <si>
+    <t>Learn a spell?</t>
   </si>
 </sst>
 </file>
@@ -1364,7 +1367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1373,31 +1376,59 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="16" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1415,68 +1446,38 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1795,7 +1796,7 @@
   <dimension ref="A1:AR38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1808,26 +1809,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="20" t="s">
+      <c r="F1" s="45"/>
+      <c r="G1" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21" t="s">
+      <c r="H1" s="30"/>
+      <c r="I1" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="21"/>
+      <c r="J1" s="30"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1836,191 +1837,191 @@
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="Y9" s="50"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="Y9" s="26"/>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="46"/>
+      <c r="C10" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="47"/>
+      <c r="E10" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11" t="s">
+      <c r="F10" s="34"/>
+      <c r="G10" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12" t="s">
+      <c r="H10" s="40"/>
+      <c r="I10" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="10" t="s">
+      <c r="J10" s="41"/>
+      <c r="K10" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="15" t="s">
+      <c r="L10" s="34"/>
+      <c r="M10" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="16" t="s">
+      <c r="N10" s="35"/>
+      <c r="O10" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="17" t="s">
+      <c r="P10" s="36"/>
+      <c r="Q10" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="R10" s="17"/>
-      <c r="S10" s="18" t="s">
+      <c r="R10" s="37"/>
+      <c r="S10" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="T10" s="18"/>
-      <c r="U10" s="19" t="s">
+      <c r="T10" s="38"/>
+      <c r="U10" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="V10" s="19"/>
-      <c r="W10" s="22" t="s">
+      <c r="V10" s="39"/>
+      <c r="W10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="13" t="s">
+      <c r="X10" s="31"/>
+      <c r="Y10" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="51" t="s">
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="AB10" s="52"/>
-      <c r="AC10" s="13" t="s">
+      <c r="AB10" s="43"/>
+      <c r="AC10" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13" t="s">
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="14" t="s">
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="AH10" s="14"/>
-      <c r="AI10" s="23" t="s">
+      <c r="AH10" s="33"/>
+      <c r="AI10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="AJ10" s="23"/>
-      <c r="AK10" s="24" t="s">
+      <c r="AJ10" s="32"/>
+      <c r="AK10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="AL10" s="24"/>
-      <c r="AM10" s="13" t="s">
+      <c r="AL10" s="27"/>
+      <c r="AM10" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="AN10" s="13"/>
-      <c r="AO10" s="13" t="s">
+      <c r="AN10" s="28"/>
+      <c r="AO10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="AP10" s="13"/>
-      <c r="AQ10" s="13" t="s">
+      <c r="AP10" s="28"/>
+      <c r="AQ10" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="AR10" s="13"/>
+      <c r="AR10" s="28"/>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
@@ -2551,6 +2552,9 @@
       <c r="J17">
         <v>3</v>
       </c>
+      <c r="U17" t="s">
+        <v>204</v>
+      </c>
       <c r="AA17" t="s">
         <v>162</v>
       </c>
@@ -2943,6 +2947,17 @@
     <row r="38" spans="5:9" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A1:B9"/>
+    <mergeCell ref="C1:D9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E1:F9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
     <mergeCell ref="AK10:AL10"/>
     <mergeCell ref="AM10:AN10"/>
     <mergeCell ref="AO10:AP10"/>
@@ -2959,17 +2974,6 @@
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="S10:T10"/>
     <mergeCell ref="U10:V10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="A1:B9"/>
-    <mergeCell ref="C1:D9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E1:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2979,10 +2983,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4B0B23-3967-459E-9865-E5CE05D975A8}">
-  <dimension ref="A1:AG106"/>
+  <dimension ref="A1:AF106"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2995,48 +2999,48 @@
     <col min="14" max="14" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="74" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:32" ht="74" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="H1" s="30" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="H1" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="47" t="s">
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>177</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -3045,923 +3049,922 @@
       <c r="C2" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="45" t="s">
+      <c r="N2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="46" t="s">
+      <c r="O2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="37" t="s">
+      <c r="P2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="38" t="s">
+      <c r="Q2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="39" t="s">
+      <c r="R2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="40" t="s">
+      <c r="S2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="41" t="s">
+      <c r="T2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="42" t="s">
+      <c r="U2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="28" t="s">
+      <c r="V2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="35" t="s">
+      <c r="W2" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="35" t="s">
+      <c r="X2" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="35" t="s">
+      <c r="Y2" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="35" t="s">
+      <c r="Z2" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="36" t="s">
+      <c r="AA2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="33" t="s">
+      <c r="AB2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="34" t="s">
+      <c r="AC2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="AD2" s="35" t="s">
+      <c r="AD2" t="s">
         <v>19</v>
       </c>
-      <c r="AE2" s="35" t="s">
+      <c r="AE2" t="s">
         <v>20</v>
       </c>
-      <c r="AF2" s="35" t="s">
+      <c r="AF2" t="s">
         <v>21</v>
       </c>
-      <c r="AG2" s="35"/>
-    </row>
-    <row r="3" spans="1:33" ht="87" x14ac:dyDescent="0.35">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26">
+    </row>
+    <row r="3" spans="1:32" ht="87" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="7">
         <v>25</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="M3" s="49" t="s">
+      <c r="M3" s="25" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7">
         <v>25</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="7">
         <v>70</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7">
         <v>70</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="7">
         <v>100</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7">
         <v>101</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="7">
         <v>200</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="J6" s="45" t="s">
+      <c r="J6" s="22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A7" s="25"/>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
       <c r="B7" s="5">
         <v>201</v>
       </c>
       <c r="C7" s="5">
         <v>300</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="J7" s="46" t="s">
+      <c r="J7" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A8" s="25"/>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A8" s="6"/>
       <c r="B8" s="5">
         <v>301</v>
       </c>
       <c r="C8" s="5">
         <v>400</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="J8" s="37" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="J8" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A9" s="25"/>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="25"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="5"/>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A10" s="25"/>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A10" s="6"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="J10" s="39" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="J10" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A11" s="25"/>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="J11" s="40" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="J11" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A12" s="25"/>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A12" s="6"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="J12" s="41" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="J12" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A13" s="25"/>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="J13" s="42" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="J13" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A14" s="25"/>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A14" s="6"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="J14" s="28" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="J14" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A15" s="25"/>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A15" s="6"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="J15" s="35" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="J15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A16" s="25"/>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A16" s="6"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="J16" s="35" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="J16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="25"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="J17" s="35" t="s">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="J17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="25"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="J18" s="35" t="s">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="J18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="25"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="J19" s="36" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="J19" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="25"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="J20" s="33" t="s">
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="J20" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="25"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="J21" s="34" t="s">
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="J21" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="25"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="J22" s="35" t="s">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="J22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="25"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="J23" s="35" t="s">
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="J23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="25"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="J24" s="35" t="s">
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="J24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="25"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="25"/>
+      <c r="A26" s="6"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="25"/>
+      <c r="A27" s="6"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="25"/>
+      <c r="A28" s="6"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="25"/>
+      <c r="A29" s="6"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="25"/>
+      <c r="A30" s="6"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="25"/>
+      <c r="A31" s="6"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="25"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="25"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="25"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="25"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="25"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="25"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="25"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="25"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="25"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="25"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="25"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="25"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="25"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="25"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="25"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="25"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="25"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="25"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="25"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="25"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="25"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="25"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="25"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="25"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" s="25"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" s="25"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" s="25"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" s="25"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" s="25"/>
-      <c r="B85" s="25"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" s="25"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="25"/>
-      <c r="B87" s="25"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="25"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="25"/>
-      <c r="B89" s="25"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" s="25"/>
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="25"/>
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" s="25"/>
-      <c r="B91" s="25"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="25"/>
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" s="25"/>
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="25"/>
-      <c r="B93" s="25"/>
-      <c r="C93" s="25"/>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="25"/>
-      <c r="B94" s="25"/>
-      <c r="C94" s="25"/>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="25"/>
-      <c r="B95" s="25"/>
-      <c r="C95" s="25"/>
-      <c r="D95" s="25"/>
-      <c r="E95" s="25"/>
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="25"/>
-      <c r="B96" s="25"/>
-      <c r="C96" s="25"/>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="25"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="25"/>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="25"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="25"/>
-      <c r="D98" s="25"/>
-      <c r="E98" s="25"/>
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="25"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="25"/>
-      <c r="E99" s="25"/>
+      <c r="A99" s="6"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" s="25"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" s="25"/>
-      <c r="B101" s="25"/>
-      <c r="C101" s="25"/>
-      <c r="D101" s="25"/>
-      <c r="E101" s="25"/>
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" s="25"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="25"/>
-      <c r="D102" s="25"/>
-      <c r="E102" s="25"/>
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" s="25"/>
-      <c r="B103" s="25"/>
-      <c r="C103" s="25"/>
-      <c r="D103" s="25"/>
-      <c r="E103" s="25"/>
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" s="25"/>
-      <c r="B104" s="25"/>
-      <c r="C104" s="25"/>
-      <c r="D104" s="25"/>
-      <c r="E104" s="25"/>
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" s="25"/>
-      <c r="B105" s="25"/>
-      <c r="C105" s="25"/>
-      <c r="D105" s="25"/>
-      <c r="E105" s="25"/>
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A106" s="25"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="25"/>
-      <c r="D106" s="25"/>
-      <c r="E106" s="25"/>
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
